--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Slurp1</t>
+  </si>
+  <si>
+    <t>Chrna7</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slurp1</t>
-  </si>
-  <si>
-    <t>Chrna7</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2306833333333334</v>
+      </c>
+      <c r="H2">
+        <v>0.6920500000000001</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.05678866666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.170366</v>
-      </c>
-      <c r="I2">
-        <v>0.1584186956489396</v>
-      </c>
       <c r="J2">
-        <v>0.1696169714540589</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,22 +555,22 @@
         <v>0.453152</v>
       </c>
       <c r="O2">
-        <v>0.1021438275218414</v>
+        <v>0.08739726069669089</v>
       </c>
       <c r="P2">
-        <v>0.1457709403864948</v>
+        <v>0.1256070356260616</v>
       </c>
       <c r="Q2">
-        <v>0.008577965959111112</v>
+        <v>0.03484487128888889</v>
       </c>
       <c r="R2">
-        <v>0.07720169363200001</v>
+        <v>0.3136038416</v>
       </c>
       <c r="S2">
-        <v>0.01618149192460038</v>
+        <v>0.08739726069669089</v>
       </c>
       <c r="T2">
-        <v>0.02472522543436741</v>
+        <v>0.1256070356260616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.2306833333333334</v>
+      </c>
+      <c r="H3">
+        <v>0.6920500000000001</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.05678866666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.170366</v>
-      </c>
-      <c r="I3">
-        <v>0.1584186956489396</v>
-      </c>
       <c r="J3">
-        <v>0.1696169714540589</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,276 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.327753</v>
+        <v>1.577272</v>
       </c>
       <c r="N3">
-        <v>2.655505999999999</v>
+        <v>3.154544</v>
       </c>
       <c r="O3">
-        <v>0.8978561724781585</v>
+        <v>0.9126027393033092</v>
       </c>
       <c r="P3">
-        <v>0.8542290596135053</v>
+        <v>0.8743929643739384</v>
       </c>
       <c r="Q3">
-        <v>0.07540132253266667</v>
+        <v>0.3638503625333334</v>
       </c>
       <c r="R3">
-        <v>0.452407935196</v>
+        <v>2.1831021752</v>
       </c>
       <c r="S3">
-        <v>0.1422372037243392</v>
+        <v>0.9126027393033092</v>
       </c>
       <c r="T3">
-        <v>0.1448917460196915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.2306833333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.6920500000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.6435184151993275</v>
-      </c>
-      <c r="J4">
-        <v>0.6890073435707914</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.1510506666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.453152</v>
-      </c>
-      <c r="O4">
-        <v>0.1021438275218414</v>
-      </c>
-      <c r="P4">
-        <v>0.1457709403864948</v>
-      </c>
-      <c r="Q4">
-        <v>0.03484487128888889</v>
-      </c>
-      <c r="R4">
-        <v>0.3136038416</v>
-      </c>
-      <c r="S4">
-        <v>0.06573143400924886</v>
-      </c>
-      <c r="T4">
-        <v>0.100437248405515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.2306833333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.6920500000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.6435184151993275</v>
-      </c>
-      <c r="J5">
-        <v>0.6890073435707914</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.327753</v>
-      </c>
-      <c r="N5">
-        <v>2.655505999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.8978561724781585</v>
-      </c>
-      <c r="P5">
-        <v>0.8542290596135053</v>
-      </c>
-      <c r="Q5">
-        <v>0.3062904878833333</v>
-      </c>
-      <c r="R5">
-        <v>1.8377429273</v>
-      </c>
-      <c r="S5">
-        <v>0.5777869811900787</v>
-      </c>
-      <c r="T5">
-        <v>0.5885700951652765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.142</v>
-      </c>
-      <c r="I6">
-        <v>0.1980628891517329</v>
-      </c>
-      <c r="J6">
-        <v>0.1413756849751497</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1510506666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.453152</v>
-      </c>
-      <c r="O6">
-        <v>0.1021438275218414</v>
-      </c>
-      <c r="P6">
-        <v>0.1457709403864948</v>
-      </c>
-      <c r="Q6">
-        <v>0.01072459733333333</v>
-      </c>
-      <c r="R6">
-        <v>0.064347584</v>
-      </c>
-      <c r="S6">
-        <v>0.02023090158799221</v>
-      </c>
-      <c r="T6">
-        <v>0.02060846654661242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.142</v>
-      </c>
-      <c r="I7">
-        <v>0.1980628891517329</v>
-      </c>
-      <c r="J7">
-        <v>0.1413756849751497</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.327753</v>
-      </c>
-      <c r="N7">
-        <v>2.655505999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.8978561724781585</v>
-      </c>
-      <c r="P7">
-        <v>0.8542290596135053</v>
-      </c>
-      <c r="Q7">
-        <v>0.09427046299999997</v>
-      </c>
-      <c r="R7">
-        <v>0.3770818519999999</v>
-      </c>
-      <c r="S7">
-        <v>0.1778319875637407</v>
-      </c>
-      <c r="T7">
-        <v>0.1207672184285373</v>
+        <v>0.8743929643739384</v>
       </c>
     </row>
   </sheetData>
